--- a/media/template.xlsx
+++ b/media/template.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelnv/python/course/module1/project/media/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwlik\Desktop\python-course-bibliography-generator\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D214F9-F66B-194A-AA07-D1DE2931A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B92F5-3F68-4084-B9A3-3E12F756CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="760" windowWidth="32040" windowHeight="17440" xr2:uid="{1807092D-0DC2-8D42-BD0F-6967B3E6F74C}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" activeTab="1" xr2:uid="{1807092D-0DC2-8D42-BD0F-6967B3E6F74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Книга" sheetId="1" r:id="rId1"/>
-    <sheet name="Интернет-ресурс" sheetId="2" r:id="rId2"/>
-    <sheet name=" Закон, нормативный акт и т.п." sheetId="3" r:id="rId3"/>
-    <sheet name="Диссертация" sheetId="4" r:id="rId4"/>
-    <sheet name="Автореферат" sheetId="5" r:id="rId5"/>
-    <sheet name="Статья из журнала" sheetId="6" r:id="rId6"/>
-    <sheet name="Статья из сборника" sheetId="7" r:id="rId7"/>
-    <sheet name="Статья из газеты" sheetId="8" r:id="rId8"/>
+    <sheet name="Книга MLA" sheetId="11" r:id="rId2"/>
+    <sheet name="Интернет-ресурс" sheetId="12" r:id="rId3"/>
+    <sheet name="Интернет-ресурс MLA" sheetId="2" r:id="rId4"/>
+    <sheet name=" Закон, нормативный акт и т.п." sheetId="3" r:id="rId5"/>
+    <sheet name="Диссертация" sheetId="4" r:id="rId6"/>
+    <sheet name="Автореферат" sheetId="5" r:id="rId7"/>
+    <sheet name="Статья из журнала" sheetId="6" r:id="rId8"/>
+    <sheet name="Статья из сборника" sheetId="7" r:id="rId9"/>
+    <sheet name="Статья из газеты" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>Фамилии и инициалы авторов</t>
   </si>
@@ -80,9 +82,6 @@
     <t>Просвещение</t>
   </si>
   <si>
-    <t>Заголовок статьи или страницы</t>
-  </si>
-  <si>
     <t>Название сайта</t>
   </si>
   <si>
@@ -255,6 +254,78 @@
   </si>
   <si>
     <t>http://www.tapemark.narod.ru/les/index.html</t>
+  </si>
+  <si>
+    <t>Author’s Last Name</t>
+  </si>
+  <si>
+    <t>Author’s First Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Year of publication</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>The Citation Manual for Students: A Quick Guide</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Day Month Year of publication</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Slat</t>
+  </si>
+  <si>
+    <t>Boyan</t>
+  </si>
+  <si>
+    <t>Whales Likely Impacted by Great Pacific Garbage Patch.</t>
+  </si>
+  <si>
+    <t>The Ocean Cleanup</t>
+  </si>
+  <si>
+    <t>10 Apr. 2019</t>
+  </si>
+  <si>
+    <t>www.theoceancleanup.com/updates/whales-likely-impacted-by-great-pacific-garbage-patch</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>Scholtes</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>The Team Handbook: How to Use Teams to Improve Quality</t>
+  </si>
+  <si>
+    <t>Joiner</t>
   </si>
 </sst>
 </file>
@@ -316,7 +387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,10 +401,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -342,13 +410,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="87">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -576,136 +698,166 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145AC3C6-38B1-A240-AC4B-92D1F879E94C}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145AC3C6-38B1-A240-AC4B-92D1F879E94C}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:G10" xr:uid="{145AC3C6-38B1-A240-AC4B-92D1F879E94C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC8A8191-06B9-1441-BF8F-D1FFC678252E}" name="Фамилии и инициалы авторов" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{F350D718-7977-1F46-ACD7-0D83A59D5FBD}" name="Название книги" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{243BA16D-ED2B-9E4F-AF91-0D72D837C058}" name="Номер издания" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{FCC82FE5-0D92-9846-B961-F17B686B3239}" name="Город издательства" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{B65B8FC7-3724-0A4C-818A-AD7FA2AD64EB}" name="Название издательства" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{3BF7551B-0910-6F4D-9B33-0596C85F2318}" name="Год издания" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{AD55AB3E-21B8-9942-BD66-2174D1F429F3}" name="Количество страниц" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{AC8A8191-06B9-1441-BF8F-D1FFC678252E}" name="Фамилии и инициалы авторов" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{F350D718-7977-1F46-ACD7-0D83A59D5FBD}" name="Название книги" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{243BA16D-ED2B-9E4F-AF91-0D72D837C058}" name="Номер издания" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{FCC82FE5-0D92-9846-B961-F17B686B3239}" name="Город издательства" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{B65B8FC7-3724-0A4C-818A-AD7FA2AD64EB}" name="Название издательства" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{3BF7551B-0910-6F4D-9B33-0596C85F2318}" name="Год издания" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{AD55AB3E-21B8-9942-BD66-2174D1F429F3}" name="Количество страниц" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8249D061-41B8-6542-80FC-8E28B42526EE}" name="Table14578910" displayName="Table14578910" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:F10" xr:uid="{8249D061-41B8-6542-80FC-8E28B42526EE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{50DB5770-807C-2945-BEE2-319304CB1204}" name="Фамилии и инициалы авторов" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E22A958C-7018-BE4A-ACBA-CEFF7305EB84}" name="Название статьи" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{22E33630-897E-734D-B022-6DC572D1F5F8}" name="Название газеты" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FC3C28B8-1372-9045-9DDA-4CA25260DF08}" name="Год издания" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E60C91B3-331D-D147-BB31-DA99F6C069D7}" name="Дата выхода газеты" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{18333EC5-E6B7-5140-9D18-088CE78FD8D4}" name="Номер статьи" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D355B9CA-7CD4-8A41-92BA-C40FCDFDB994}" name="Table13" displayName="Table13" ref="A1:D10" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{895F82B8-C56A-41E3-AB24-A924CEAF2ECC}" name="Table16" displayName="Table16" ref="A1:F10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+  <autoFilter ref="A1:F10" xr:uid="{145AC3C6-38B1-A240-AC4B-92D1F879E94C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{14B332EE-DACA-432C-A378-6239391512D2}" name="Author’s Last Name" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{A5C743F5-12A5-480E-A588-32C26AA9ECF0}" name="Author’s First Name" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{788291DD-A39A-4B77-83A2-EC08FB7DDFAB}" name="Title" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{318B7387-EAC1-409B-B2DA-92DF0F92CA8E}" name="Edition" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{36AE711B-2B69-4EB4-AC5D-D757B1AA8694}" name="Publisher" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{632EA67F-7BF1-445D-BDF2-199222E89D92}" name="Year of publication" dataDxfId="71"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A25949DE-54E6-472B-B87D-330379B147D2}" name="Table1311" displayName="Table1311" ref="A1:D10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A1:D10" xr:uid="{D355B9CA-7CD4-8A41-92BA-C40FCDFDB994}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D476E401-D70E-874A-B348-D15B3214EC91}" name="Заголовок статьи или страницы" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{C1DEDF42-6C25-244E-939A-FE8A4F312488}" name="Название сайта" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{26730401-FB4F-2647-92F2-A74F4F5D4F9D}" name="Гиперссылка" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{C1B155B8-9134-2546-98E6-69F88F344657}" name="Дата обращения на сайт" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{74D8651A-7150-458A-94F9-88023961475A}" name="Author’s Last Name" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{15B10A8D-617D-49A8-9708-ECA8222ED115}" name="Название сайта" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{44229574-47EF-4911-8CA0-2D2304C1598B}" name="Гиперссылка" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{400107BF-4FA8-4506-813F-C6FCC9A46FF8}" name="Дата обращения на сайт" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DB4EAEF-7DA6-BF45-829D-A22C9344355B}" name="Table14" displayName="Table14" ref="A1:I10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D355B9CA-7CD4-8A41-92BA-C40FCDFDB994}" name="Table13" displayName="Table13" ref="A1:F10" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A1:F10" xr:uid="{D355B9CA-7CD4-8A41-92BA-C40FCDFDB994}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D476E401-D70E-874A-B348-D15B3214EC91}" name="Author’s Last Name" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{C1DEDF42-6C25-244E-939A-FE8A4F312488}" name="Author’s First Name" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{26730401-FB4F-2647-92F2-A74F4F5D4F9D}" name="Title" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{C1B155B8-9134-2546-98E6-69F88F344657}" name="Website" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{39B42CCC-ECAE-46AA-971F-60FC35643AD1}" name="Day Month Year of publication" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{BD6AAE2B-B2EB-483B-8A91-8080EB28492E}" name="URL" dataDxfId="57"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DB4EAEF-7DA6-BF45-829D-A22C9344355B}" name="Table14" displayName="Table14" ref="A1:I10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:I10" xr:uid="{7DB4EAEF-7DA6-BF45-829D-A22C9344355B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DA93F8CE-55DD-D743-BCEE-9232685F043C}" name="Тип нормативного актa" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{9BB8859E-564C-9846-8E2C-1E22DB3472BF}" name="Полное название нормативного акта" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{50ADE570-C0CD-2B41-9BDF-CC06F4CC9831}" name="Дата принятия" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{C07BB0E4-B237-C04C-BA14-2D73F0218063}" name="Номер нормативного акта" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{0B6FDCAC-52DF-4F44-BB09-CD5C24FE78A4}" name="Официальный источник опубликования" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{BDB655D3-D12C-8F4B-92F0-83137AC7E6CA}" name="Год публикации источника" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{0B4C92C5-1F56-D840-8F44-FF7CA414CFF9}" name="Номер выхода источника" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{B1CAC8DB-A933-A549-BD80-E5454D60F720}" name="Номер статьи" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{A667D7F7-BF79-4842-A8E6-2E7475B3BFDA}" name="В редакции от" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{DA93F8CE-55DD-D743-BCEE-9232685F043C}" name="Тип нормативного актa" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{9BB8859E-564C-9846-8E2C-1E22DB3472BF}" name="Полное название нормативного акта" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{50ADE570-C0CD-2B41-9BDF-CC06F4CC9831}" name="Дата принятия" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{C07BB0E4-B237-C04C-BA14-2D73F0218063}" name="Номер нормативного акта" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{0B6FDCAC-52DF-4F44-BB09-CD5C24FE78A4}" name="Официальный источник опубликования" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{BDB655D3-D12C-8F4B-92F0-83137AC7E6CA}" name="Год публикации источника" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{0B4C92C5-1F56-D840-8F44-FF7CA414CFF9}" name="Номер выхода источника" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{B1CAC8DB-A933-A549-BD80-E5454D60F720}" name="Номер статьи" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{A667D7F7-BF79-4842-A8E6-2E7475B3BFDA}" name="В редакции от" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{94289CB7-CAB4-4B41-906A-C57ECC3ABC4F}" name="Table145" displayName="Table145" ref="A1:H10" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{94289CB7-CAB4-4B41-906A-C57ECC3ABC4F}" name="Table145" displayName="Table145" ref="A1:H10" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:H10" xr:uid="{94289CB7-CAB4-4B41-906A-C57ECC3ABC4F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0F8BA47B-7AAA-E84B-9156-115C2EEEA3B0}" name="Фамилия и инициалы автора" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{CAEF0393-8E3E-B648-A5EC-C0F6FCF1327D}" name="Название диссертации" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{74943D0B-8368-FF41-9D34-F317958490F2}" name="Доктора или кандидата" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{C4315642-C99E-D64C-A95E-97973935750C}" name="Отрасль наук (сокращённо)" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{6C48EAEB-038A-8543-9C05-4B820CD991C0}" name="Код специальности" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{B6B80C0D-F76C-BB4B-810E-80C0B25B79E8}" name="Город издательства" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{51352836-93D1-0244-B976-3D400D44A6D9}" name="Год" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{6C20AF3C-B5E2-4C4F-8F27-D30ED97E66FA}" name="Количество страниц" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{0F8BA47B-7AAA-E84B-9156-115C2EEEA3B0}" name="Фамилия и инициалы автора" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{CAEF0393-8E3E-B648-A5EC-C0F6FCF1327D}" name="Название диссертации" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{74943D0B-8368-FF41-9D34-F317958490F2}" name="Доктора или кандидата" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{C4315642-C99E-D64C-A95E-97973935750C}" name="Отрасль наук (сокращённо)" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{6C48EAEB-038A-8543-9C05-4B820CD991C0}" name="Код специальности" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{B6B80C0D-F76C-BB4B-810E-80C0B25B79E8}" name="Город издательства" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{51352836-93D1-0244-B976-3D400D44A6D9}" name="Год" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{6C20AF3C-B5E2-4C4F-8F27-D30ED97E66FA}" name="Количество страниц" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{72406609-A584-6C45-BF44-96788CEB6AEC}" name="Table1457" displayName="Table1457" ref="A1:H10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{72406609-A584-6C45-BF44-96788CEB6AEC}" name="Table1457" displayName="Table1457" ref="A1:H10" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:H10" xr:uid="{72406609-A584-6C45-BF44-96788CEB6AEC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{218AD14A-262B-EA4C-AECA-73E3B893ED02}" name="Фамилия и инициалы автора" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{49D78B99-20BD-5F46-A905-B9B1B291B9D3}" name="Название диссертации" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{B4B6E55D-2DDB-224C-8E95-F8ADCA1FB8DF}" name="Доктора или кандидата" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{D2DE7460-934C-4942-A044-36E157712657}" name="Отрасль наук (сокращённо)" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{008B47C9-18AD-F64C-B7B4-CF84E16603EB}" name="Код специальности" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{74CFE771-7D58-D449-9872-A92BEC84404A}" name="Город издательства" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{A66A001C-F244-AF49-85A8-49BEA05AEFF3}" name="Год" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{FA5C95CD-621E-5A45-B488-3CDD323AC491}" name="Количество страниц" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{218AD14A-262B-EA4C-AECA-73E3B893ED02}" name="Фамилия и инициалы автора" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{49D78B99-20BD-5F46-A905-B9B1B291B9D3}" name="Название диссертации" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B4B6E55D-2DDB-224C-8E95-F8ADCA1FB8DF}" name="Доктора или кандидата" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{D2DE7460-934C-4942-A044-36E157712657}" name="Отрасль наук (сокращённо)" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{008B47C9-18AD-F64C-B7B4-CF84E16603EB}" name="Код специальности" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{74CFE771-7D58-D449-9872-A92BEC84404A}" name="Город издательства" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{A66A001C-F244-AF49-85A8-49BEA05AEFF3}" name="Год" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{FA5C95CD-621E-5A45-B488-3CDD323AC491}" name="Количество страниц" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0DE3887D-FC43-4642-90F3-B3B1CDB3B1E2}" name="Table14578" displayName="Table14578" ref="A1:F10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0DE3887D-FC43-4642-90F3-B3B1CDB3B1E2}" name="Table14578" displayName="Table14578" ref="A1:F10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:F10" xr:uid="{0DE3887D-FC43-4642-90F3-B3B1CDB3B1E2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E85F3D3F-BDAD-CC4C-8B9D-B391E38977AD}" name="Фамилии и инициалы авторов" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{E6649EE8-B26D-5444-9FBE-9A6423CE741D}" name="Название статьи" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{E6FE16AD-7A63-3144-94B4-55B3D4746E28}" name="Название журнала" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{2CB4E4B6-F265-2343-B009-02C3DBE93DC0}" name="Год издания" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{D3969755-95DC-3B45-B7B6-617194750EFA}" name="Номер журнала" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A44563D1-DB78-D547-8F47-1615C0651EFE}" name="Страницы статьи в журнале" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E85F3D3F-BDAD-CC4C-8B9D-B391E38977AD}" name="Фамилии и инициалы авторов" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{E6649EE8-B26D-5444-9FBE-9A6423CE741D}" name="Название статьи" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{E6FE16AD-7A63-3144-94B4-55B3D4746E28}" name="Название журнала" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{2CB4E4B6-F265-2343-B009-02C3DBE93DC0}" name="Год издания" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{D3969755-95DC-3B45-B7B6-617194750EFA}" name="Номер журнала" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{A44563D1-DB78-D547-8F47-1615C0651EFE}" name="Страницы статьи в журнале" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8CF07A18-ACC5-F24E-92CF-2BCBADB418DD}" name="Table145789" displayName="Table145789" ref="A1:G10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8CF07A18-ACC5-F24E-92CF-2BCBADB418DD}" name="Table145789" displayName="Table145789" ref="A1:G10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G10" xr:uid="{8CF07A18-ACC5-F24E-92CF-2BCBADB418DD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4D09D55E-1107-7B47-B370-7D852543B864}" name="Фамилии и инициалы авторов" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{658A8A15-22FA-D147-A8AC-985FFC9CB0D1}" name="Название статьи" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{81DBBD20-B380-3542-8736-317B25A122BB}" name="Название сборника" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{597B51F8-A03B-8345-824F-D7940CB464C5}" name="Город издательства" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{DB6499B6-3347-5146-9C7A-618D05375681}" name="Название издательства" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{F2F08906-1C92-6C44-BF7B-4A64D1CB0AC5}" name="Год издания" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{0FAFBE1C-CE60-A745-AA54-D007EE867899}" name="Страницы статьи в сборнике" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4D09D55E-1107-7B47-B370-7D852543B864}" name="Фамилии и инициалы авторов" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{658A8A15-22FA-D147-A8AC-985FFC9CB0D1}" name="Название статьи" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{81DBBD20-B380-3542-8736-317B25A122BB}" name="Название сборника" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{597B51F8-A03B-8345-824F-D7940CB464C5}" name="Город издательства" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{DB6499B6-3347-5146-9C7A-618D05375681}" name="Название издательства" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F2F08906-1C92-6C44-BF7B-4A64D1CB0AC5}" name="Год издания" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{0FAFBE1C-CE60-A745-AA54-D007EE867899}" name="Страницы статьи в сборнике" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8249D061-41B8-6542-80FC-8E28B42526EE}" name="Table14578910" displayName="Table14578910" ref="A1:F10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F10" xr:uid="{8249D061-41B8-6542-80FC-8E28B42526EE}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{50DB5770-807C-2945-BEE2-319304CB1204}" name="Фамилии и инициалы авторов" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E22A958C-7018-BE4A-ACBA-CEFF7305EB84}" name="Название статьи" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{22E33630-897E-734D-B022-6DC572D1F5F8}" name="Название газеты" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FC3C28B8-1372-9045-9DDA-4CA25260DF08}" name="Год издания" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E60C91B3-331D-D147-BB31-DA99F6C069D7}" name="Дата выхода газеты" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{18333EC5-E6B7-5140-9D18-088CE78FD8D4}" name="Номер статьи" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,7 +895,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -849,7 +1001,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1001,22 +1153,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9485DB95-4C34-684F-A5A5-455A0D71C5A5}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1062,21 +1214,21 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="32.15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F3" s="2">
         <v>2001</v>
@@ -1085,19 +1237,19 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="32.15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2">
         <v>2001</v>
@@ -1106,19 +1258,19 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="32.15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2">
         <v>2014</v>
@@ -1127,7 +1279,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1136,7 +1288,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1145,7 +1297,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1154,7 +1306,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1163,7 +1315,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1172,7 +1324,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1180,6 +1332,136 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3346FCDD-456A-3B49-9573-EE599F18C045}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1980</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1190,118 +1472,270 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA0D484-D80D-924F-B1FE-FBFE0BAC8675}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFFFD9-9C8B-4997-8FDB-FA0C3547A1AD}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32.15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32.15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CD963B-4818-41B3-8842-7AF5E149C852}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.1796875" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32.15" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.15" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2CEB24B-6920-2C4D-81B0-8676E4A21BA0}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{37A36241-30AE-5E49-91AA-27A1A48E4FE9}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{66DA8177-9B0A-3F4A-82D5-7169C8267C6B}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{58F70036-E553-4EBB-9C91-D3D2B974EEA6}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{41CD6205-1EF6-4B0A-930A-A972444B34B9}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{18668B4D-08E0-449D-A13C-4F11E167049F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1310,7 +1744,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA0D484-D80D-924F-B1FE-FBFE0BAC8675}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="46.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="32.15" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="32.15" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F198AA-2E93-734A-A229-D5CCBEA04514}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1318,51 +1883,51 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1371,10 +1936,10 @@
         <v>36526</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>2020</v>
@@ -1389,7 +1954,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1400,7 +1965,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1411,7 +1976,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1422,7 +1987,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1433,7 +1998,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1444,7 +2009,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1455,7 +2020,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1466,7 +2031,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1486,7 +2051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA460EB4-94E1-174E-88D1-126827D78EC4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1494,59 +2059,59 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="59.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1558,7 +2123,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1568,7 +2133,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1578,7 +2143,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1588,7 +2153,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1598,7 +2163,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1608,7 +2173,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1618,7 +2183,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1628,7 +2193,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1649,7 +2214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF624E0E-7143-2E45-B88B-583316D26BE9}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1657,59 +2222,59 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1721,7 +2286,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1731,7 +2296,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1741,7 +2306,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1751,7 +2316,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1761,7 +2326,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1771,7 +2336,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1781,7 +2346,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1791,7 +2356,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1812,7 +2377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7E9FB1-1298-B140-9EF8-6885E26C027A}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -1820,57 +2385,57 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>42</v>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="2">
         <v>2020</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1878,7 +2443,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1886,7 +2451,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1894,7 +2459,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1902,7 +2467,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1910,7 +2475,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1918,7 +2483,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1926,7 +2491,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1942,7 +2507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E8638A-5DD9-D44E-BE5B-31A0C834E9AC}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1950,26 +2515,26 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.36328125" customWidth="1"/>
+    <col min="2" max="2" width="42.6328125" customWidth="1"/>
+    <col min="3" max="3" width="48.6328125" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1981,33 +2546,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>47</v>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2">
         <v>2020</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2016,7 +2581,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2025,7 +2590,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2034,7 +2599,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2043,7 +2608,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2052,7 +2617,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2061,7 +2626,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2070,7 +2635,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2085,134 +2650,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3346FCDD-456A-3B49-9573-EE599F18C045}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1980</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/media/template.xlsx
+++ b/media/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelnv/python/course/module1/project/media/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VEGAST~1\AppData\Local\Temp\tmp-19244-pLEcjncB7fvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D214F9-F66B-194A-AA07-D1DE2931A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="760" windowWidth="32040" windowHeight="17440" xr2:uid="{1807092D-0DC2-8D42-BD0F-6967B3E6F74C}"/>
+    <workbookView xWindow="1560" yWindow="765" windowWidth="32040" windowHeight="17445" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Книга" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Статья из сборника" sheetId="7" r:id="rId7"/>
     <sheet name="Статья из газеты" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -260,9 +259,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -314,7 +313,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -344,9 +343,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="71">
     <dxf>
@@ -576,136 +575,136 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145AC3C6-38B1-A240-AC4B-92D1F879E94C}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
-  <autoFilter ref="A1:G10" xr:uid="{145AC3C6-38B1-A240-AC4B-92D1F879E94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC8A8191-06B9-1441-BF8F-D1FFC678252E}" name="Фамилии и инициалы авторов" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{F350D718-7977-1F46-ACD7-0D83A59D5FBD}" name="Название книги" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{243BA16D-ED2B-9E4F-AF91-0D72D837C058}" name="Номер издания" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{FCC82FE5-0D92-9846-B961-F17B686B3239}" name="Город издательства" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{B65B8FC7-3724-0A4C-818A-AD7FA2AD64EB}" name="Название издательства" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{3BF7551B-0910-6F4D-9B33-0596C85F2318}" name="Год издания" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{AD55AB3E-21B8-9942-BD66-2174D1F429F3}" name="Количество страниц" dataDxfId="62"/>
+    <tableColumn id="1" name="Фамилии и инициалы авторов" dataDxfId="68"/>
+    <tableColumn id="2" name="Название книги" dataDxfId="67"/>
+    <tableColumn id="3" name="Номер издания" dataDxfId="66"/>
+    <tableColumn id="4" name="Город издательства" dataDxfId="65"/>
+    <tableColumn id="5" name="Название издательства" dataDxfId="64"/>
+    <tableColumn id="6" name="Год издания" dataDxfId="63"/>
+    <tableColumn id="7" name="Количество страниц" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D355B9CA-7CD4-8A41-92BA-C40FCDFDB994}" name="Table13" displayName="Table13" ref="A1:D10" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A1:D10" xr:uid="{D355B9CA-7CD4-8A41-92BA-C40FCDFDB994}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D10" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D476E401-D70E-874A-B348-D15B3214EC91}" name="Заголовок статьи или страницы" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{C1DEDF42-6C25-244E-939A-FE8A4F312488}" name="Название сайта" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{26730401-FB4F-2647-92F2-A74F4F5D4F9D}" name="Гиперссылка" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{C1B155B8-9134-2546-98E6-69F88F344657}" name="Дата обращения на сайт" dataDxfId="56"/>
+    <tableColumn id="1" name="Заголовок статьи или страницы" dataDxfId="59"/>
+    <tableColumn id="2" name="Название сайта" dataDxfId="58"/>
+    <tableColumn id="3" name="Гиперссылка" dataDxfId="57"/>
+    <tableColumn id="4" name="Дата обращения на сайт" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DB4EAEF-7DA6-BF45-829D-A22C9344355B}" name="Table14" displayName="Table14" ref="A1:I10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:I10" xr:uid="{7DB4EAEF-7DA6-BF45-829D-A22C9344355B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:I10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:I10"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DA93F8CE-55DD-D743-BCEE-9232685F043C}" name="Тип нормативного актa" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{9BB8859E-564C-9846-8E2C-1E22DB3472BF}" name="Полное название нормативного акта" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{50ADE570-C0CD-2B41-9BDF-CC06F4CC9831}" name="Дата принятия" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{C07BB0E4-B237-C04C-BA14-2D73F0218063}" name="Номер нормативного акта" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{0B6FDCAC-52DF-4F44-BB09-CD5C24FE78A4}" name="Официальный источник опубликования" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{BDB655D3-D12C-8F4B-92F0-83137AC7E6CA}" name="Год публикации источника" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{0B4C92C5-1F56-D840-8F44-FF7CA414CFF9}" name="Номер выхода источника" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{B1CAC8DB-A933-A549-BD80-E5454D60F720}" name="Номер статьи" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{A667D7F7-BF79-4842-A8E6-2E7475B3BFDA}" name="В редакции от" dataDxfId="45"/>
+    <tableColumn id="1" name="Тип нормативного актa" dataDxfId="53"/>
+    <tableColumn id="2" name="Полное название нормативного акта" dataDxfId="52"/>
+    <tableColumn id="3" name="Дата принятия" dataDxfId="51"/>
+    <tableColumn id="4" name="Номер нормативного акта" dataDxfId="50"/>
+    <tableColumn id="5" name="Официальный источник опубликования" dataDxfId="49"/>
+    <tableColumn id="6" name="Год публикации источника" dataDxfId="48"/>
+    <tableColumn id="7" name="Номер выхода источника" dataDxfId="47"/>
+    <tableColumn id="8" name="Номер статьи" dataDxfId="46"/>
+    <tableColumn id="9" name="В редакции от" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{94289CB7-CAB4-4B41-906A-C57ECC3ABC4F}" name="Table145" displayName="Table145" ref="A1:H10" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:H10" xr:uid="{94289CB7-CAB4-4B41-906A-C57ECC3ABC4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:H10" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0F8BA47B-7AAA-E84B-9156-115C2EEEA3B0}" name="Фамилия и инициалы автора" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{CAEF0393-8E3E-B648-A5EC-C0F6FCF1327D}" name="Название диссертации" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{74943D0B-8368-FF41-9D34-F317958490F2}" name="Доктора или кандидата" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{C4315642-C99E-D64C-A95E-97973935750C}" name="Отрасль наук (сокращённо)" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{6C48EAEB-038A-8543-9C05-4B820CD991C0}" name="Код специальности" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{B6B80C0D-F76C-BB4B-810E-80C0B25B79E8}" name="Город издательства" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{51352836-93D1-0244-B976-3D400D44A6D9}" name="Год" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{6C20AF3C-B5E2-4C4F-8F27-D30ED97E66FA}" name="Количество страниц" dataDxfId="35"/>
+    <tableColumn id="1" name="Фамилия и инициалы автора" dataDxfId="42"/>
+    <tableColumn id="2" name="Название диссертации" dataDxfId="41"/>
+    <tableColumn id="3" name="Доктора или кандидата" dataDxfId="40"/>
+    <tableColumn id="4" name="Отрасль наук (сокращённо)" dataDxfId="39"/>
+    <tableColumn id="5" name="Код специальности" dataDxfId="38"/>
+    <tableColumn id="6" name="Город издательства" dataDxfId="37"/>
+    <tableColumn id="7" name="Год" dataDxfId="36"/>
+    <tableColumn id="8" name="Количество страниц" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{72406609-A584-6C45-BF44-96788CEB6AEC}" name="Table1457" displayName="Table1457" ref="A1:H10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:H10" xr:uid="{72406609-A584-6C45-BF44-96788CEB6AEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1457" displayName="Table1457" ref="A1:H10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{218AD14A-262B-EA4C-AECA-73E3B893ED02}" name="Фамилия и инициалы автора" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{49D78B99-20BD-5F46-A905-B9B1B291B9D3}" name="Название диссертации" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{B4B6E55D-2DDB-224C-8E95-F8ADCA1FB8DF}" name="Доктора или кандидата" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{D2DE7460-934C-4942-A044-36E157712657}" name="Отрасль наук (сокращённо)" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{008B47C9-18AD-F64C-B7B4-CF84E16603EB}" name="Код специальности" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{74CFE771-7D58-D449-9872-A92BEC84404A}" name="Город издательства" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{A66A001C-F244-AF49-85A8-49BEA05AEFF3}" name="Год" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{FA5C95CD-621E-5A45-B488-3CDD323AC491}" name="Количество страниц" dataDxfId="25"/>
+    <tableColumn id="1" name="Фамилия и инициалы автора" dataDxfId="32"/>
+    <tableColumn id="2" name="Название диссертации" dataDxfId="31"/>
+    <tableColumn id="3" name="Доктора или кандидата" dataDxfId="30"/>
+    <tableColumn id="4" name="Отрасль наук (сокращённо)" dataDxfId="29"/>
+    <tableColumn id="5" name="Код специальности" dataDxfId="28"/>
+    <tableColumn id="6" name="Город издательства" dataDxfId="27"/>
+    <tableColumn id="7" name="Год" dataDxfId="26"/>
+    <tableColumn id="8" name="Количество страниц" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0DE3887D-FC43-4642-90F3-B3B1CDB3B1E2}" name="Table14578" displayName="Table14578" ref="A1:F10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:F10" xr:uid="{0DE3887D-FC43-4642-90F3-B3B1CDB3B1E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14578" displayName="Table14578" ref="A1:F10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:F10"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E85F3D3F-BDAD-CC4C-8B9D-B391E38977AD}" name="Фамилии и инициалы авторов" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{E6649EE8-B26D-5444-9FBE-9A6423CE741D}" name="Название статьи" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{E6FE16AD-7A63-3144-94B4-55B3D4746E28}" name="Название журнала" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{2CB4E4B6-F265-2343-B009-02C3DBE93DC0}" name="Год издания" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{D3969755-95DC-3B45-B7B6-617194750EFA}" name="Номер журнала" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A44563D1-DB78-D547-8F47-1615C0651EFE}" name="Страницы статьи в журнале" dataDxfId="17"/>
+    <tableColumn id="1" name="Фамилии и инициалы авторов" dataDxfId="22"/>
+    <tableColumn id="2" name="Название статьи" dataDxfId="21"/>
+    <tableColumn id="3" name="Название журнала" dataDxfId="20"/>
+    <tableColumn id="4" name="Год издания" dataDxfId="19"/>
+    <tableColumn id="5" name="Номер журнала" dataDxfId="18"/>
+    <tableColumn id="6" name="Страницы статьи в журнале" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8CF07A18-ACC5-F24E-92CF-2BCBADB418DD}" name="Table145789" displayName="Table145789" ref="A1:G10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:G10" xr:uid="{8CF07A18-ACC5-F24E-92CF-2BCBADB418DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table145789" displayName="Table145789" ref="A1:G10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4D09D55E-1107-7B47-B370-7D852543B864}" name="Фамилии и инициалы авторов" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{658A8A15-22FA-D147-A8AC-985FFC9CB0D1}" name="Название статьи" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{81DBBD20-B380-3542-8736-317B25A122BB}" name="Название сборника" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{597B51F8-A03B-8345-824F-D7940CB464C5}" name="Город издательства" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{DB6499B6-3347-5146-9C7A-618D05375681}" name="Название издательства" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{F2F08906-1C92-6C44-BF7B-4A64D1CB0AC5}" name="Год издания" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{0FAFBE1C-CE60-A745-AA54-D007EE867899}" name="Страницы статьи в сборнике" dataDxfId="8"/>
+    <tableColumn id="1" name="Фамилии и инициалы авторов" dataDxfId="14"/>
+    <tableColumn id="2" name="Название статьи" dataDxfId="13"/>
+    <tableColumn id="3" name="Название сборника" dataDxfId="12"/>
+    <tableColumn id="4" name="Город издательства" dataDxfId="11"/>
+    <tableColumn id="5" name="Название издательства" dataDxfId="10"/>
+    <tableColumn id="6" name="Год издания" dataDxfId="9"/>
+    <tableColumn id="7" name="Страницы статьи в сборнике" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8249D061-41B8-6542-80FC-8E28B42526EE}" name="Table14578910" displayName="Table14578910" ref="A1:F10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F10" xr:uid="{8249D061-41B8-6542-80FC-8E28B42526EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table14578910" displayName="Table14578910" ref="A1:F10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F10"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{50DB5770-807C-2945-BEE2-319304CB1204}" name="Фамилии и инициалы авторов" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E22A958C-7018-BE4A-ACBA-CEFF7305EB84}" name="Название статьи" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{22E33630-897E-734D-B022-6DC572D1F5F8}" name="Название газеты" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FC3C28B8-1372-9045-9DDA-4CA25260DF08}" name="Год издания" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E60C91B3-331D-D147-BB31-DA99F6C069D7}" name="Дата выхода газеты" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{18333EC5-E6B7-5140-9D18-088CE78FD8D4}" name="Номер статьи" dataDxfId="0"/>
+    <tableColumn id="1" name="Фамилии и инициалы авторов" dataDxfId="5"/>
+    <tableColumn id="2" name="Название статьи" dataDxfId="4"/>
+    <tableColumn id="3" name="Название газеты" dataDxfId="3"/>
+    <tableColumn id="4" name="Год издания" dataDxfId="2"/>
+    <tableColumn id="5" name="Дата выхода газеты" dataDxfId="1"/>
+    <tableColumn id="6" name="Номер статьи" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,7 +742,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -849,7 +848,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -998,25 +997,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9485DB95-4C34-684F-A5A5-455A0D71C5A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.875" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1136,7 +1135,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1145,7 +1144,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1154,7 +1153,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1163,7 +1162,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1172,7 +1171,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1190,22 +1189,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA0D484-D80D-924F-B1FE-FBFE0BAC8675}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="53.125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -1261,37 +1260,37 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1299,9 +1298,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2CEB24B-6920-2C4D-81B0-8676E4A21BA0}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{37A36241-30AE-5E49-91AA-27A1A48E4FE9}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{66DA8177-9B0A-3F4A-82D5-7169C8267C6B}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1311,27 +1310,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F198AA-2E93-734A-A229-D5CCBEA04514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1400,7 +1399,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1411,7 +1410,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1422,7 +1421,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1433,7 +1432,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1444,7 +1443,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1455,7 +1454,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1466,7 +1465,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1487,26 +1486,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA460EB4-94E1-174E-88D1-126827D78EC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1568,7 +1567,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1578,7 +1577,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1588,7 +1587,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1598,7 +1597,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1608,7 +1607,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1618,7 +1617,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1628,7 +1627,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1650,26 +1649,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF624E0E-7143-2E45-B88B-583316D26BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.375" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1731,7 +1730,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1741,7 +1740,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1751,7 +1750,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1761,7 +1760,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1771,7 +1770,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1781,7 +1780,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1791,7 +1790,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1813,24 +1812,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7E9FB1-1298-B140-9EF8-6885E26C027A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" customWidth="1"/>
+    <col min="3" max="3" width="49.875" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1878,7 +1877,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1886,7 +1885,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1894,7 +1893,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1902,7 +1901,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1910,7 +1909,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1918,7 +1917,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1926,7 +1925,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1943,25 +1942,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E8638A-5DD9-D44E-BE5B-31A0C834E9AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +2006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2016,7 +2015,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2025,7 +2024,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2034,7 +2033,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2043,7 +2042,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2052,7 +2051,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2061,7 +2060,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2070,7 +2069,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2088,24 +2087,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3346FCDD-456A-3B49-9573-EE599F18C045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2145,15 +2144,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2161,7 +2160,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2169,7 +2168,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2177,7 +2176,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2185,7 +2184,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2193,7 +2192,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2201,7 +2200,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
